--- a/va_facility_data_2025-02-20/Dearborn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dearborn%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dearborn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dearborn%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7fce4791f77f455a9fd0f380ab2f1688"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R555767715bbe47d18040146060017c92"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R318745e1e3d140149b3c15e070ad32fa"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R741b16ab4d924eaaa30d332a6617bcfa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R397cc75f6a1e46488f71ddee8c1281b9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R76c2bfaa5be4420d9fe71d4206a317da"/>
   </x:sheets>
 </x:workbook>
 </file>
